--- a/业绩报表/688618.xlsx
+++ b/业绩报表/688618.xlsx
@@ -681,7 +681,11 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>通讯行业</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
